--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49059761-1FAC-4FDC-8E6A-23C38BD9D421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE3B35-95AA-4F81-B762-8C4395EE948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="467">
   <si>
     <t>CPF</t>
   </si>
@@ -1440,6 +1440,18 @@
   </si>
   <si>
     <t>2CX É APENAS ATIVO</t>
+  </si>
+  <si>
+    <t>queues</t>
+  </si>
+  <si>
+    <t>chamadas.fila cruzando com o queues.fila</t>
+  </si>
+  <si>
+    <t>terminator</t>
+  </si>
+  <si>
+    <t>replica_mfrflab1 , replica_mfrfl2b1, replica_mfrfl3b1</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1896,9 +1908,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6712,10 +6721,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6968,13 +6977,13 @@
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>446</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
@@ -7006,7 +7015,7 @@
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I8" s="38" t="s">
         <v>446</v>
@@ -7044,7 +7053,7 @@
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I9" s="38" t="s">
         <v>457</v>
@@ -7084,7 +7093,7 @@
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>449</v>
@@ -7122,7 +7131,7 @@
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I11" s="38" t="s">
         <v>446</v>
@@ -7160,7 +7169,7 @@
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I12" s="38" t="s">
         <v>446</v>
@@ -7180,32 +7189,36 @@
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38">
         <v>200</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="J13" s="44"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>459</v>
+      </c>
       <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="L13" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38" t="s">
         <v>430</v>
@@ -7234,7 +7247,7 @@
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I14" s="38" t="s">
         <v>446</v>
@@ -7272,7 +7285,7 @@
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>446</v>
@@ -7310,7 +7323,7 @@
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I16" s="38" t="s">
         <v>446</v>
@@ -7348,7 +7361,7 @@
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>446</v>
@@ -7368,30 +7381,32 @@
       <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38">
         <v>20</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="I18" s="44" t="s">
+      <c r="G18" s="38"/>
+      <c r="H18" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="I18" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="J18" s="44"/>
+      <c r="J18" s="38" t="s">
+        <v>465</v>
+      </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -7422,7 +7437,7 @@
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I19" s="38" t="s">
         <v>446</v>
@@ -7460,7 +7475,7 @@
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I20" s="38" t="s">
         <v>446</v>
@@ -7481,37 +7496,29 @@
     </row>
     <row r="21" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>444</v>
       </c>
       <c r="G21" s="38"/>
-      <c r="H21" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>455</v>
-      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="38" t="s">
-        <v>430</v>
-      </c>
+      <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -7519,17 +7526,17 @@
     </row>
     <row r="22" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>444</v>
@@ -7538,14 +7545,10 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="38" t="s">
-        <v>462</v>
-      </c>
+      <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
-        <v>430</v>
-      </c>
+      <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -7553,25 +7556,31 @@
     </row>
     <row r="23" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38">
-        <v>19.2</v>
+        <v>11</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>444</v>
       </c>
       <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="H23" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>455</v>
+      </c>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
@@ -7582,6 +7591,72 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38">
+        <v>11</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38">
+        <v>19.2</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE3B35-95AA-4F81-B762-8C4395EE948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DD9DC-E4D5-4579-9DA5-1088A3E0189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
     <sheet name="CHAVES" sheetId="15" state="hidden" r:id="rId2"/>
-    <sheet name="ACIONA_DISCADOR" sheetId="3" r:id="rId3"/>
+    <sheet name="ACIONA_DISCADOR_OUTBOUND" sheetId="3" r:id="rId3"/>
     <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
     <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="465">
   <si>
     <t>CPF</t>
   </si>
@@ -710,9 +710,6 @@
     <t>MAILING REGISTRADO ATRELADO A CAMPANHA</t>
   </si>
   <si>
-    <t>STATUS DA TELEFONIA</t>
-  </si>
-  <si>
     <t>ROTA ATRELADA A DISCAGEM</t>
   </si>
   <si>
@@ -725,12 +722,6 @@
     <t>TELEFONE DISCADO</t>
   </si>
   <si>
-    <t>CUSTO POR TER DISCADO</t>
-  </si>
-  <si>
-    <t>SE FOI ATIVO OU RECEPTIVO</t>
-  </si>
-  <si>
     <t>ID DA CARTEIRA NO CRM IMPLANTADO</t>
   </si>
   <si>
@@ -1439,9 +1430,6 @@
     <t>mailing</t>
   </si>
   <si>
-    <t>2CX É APENAS ATIVO</t>
-  </si>
-  <si>
     <t>queues</t>
   </si>
   <si>
@@ -1452,6 +1440,12 @@
   </si>
   <si>
     <t>replica_mfrflab1 , replica_mfrfl2b1, replica_mfrfl3b1</t>
+  </si>
+  <si>
+    <t>calldate</t>
+  </si>
+  <si>
+    <t>10.13.101.169</t>
   </si>
 </sst>
 </file>
@@ -2243,10 +2237,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2513,7 +2507,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I3" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
@@ -2532,10 +2526,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -2550,31 +2544,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2582,34 +2576,34 @@
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -2620,31 +2614,31 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -2655,7 +2649,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2666,10 +2660,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -2683,7 +2677,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2694,10 +2688,10 @@
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -2708,10 +2702,10 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -2722,10 +2716,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -2736,10 +2730,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -2750,16 +2744,16 @@
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -2767,16 +2761,16 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -2784,16 +2778,16 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2801,16 +2795,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2818,16 +2812,16 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2835,16 +2829,16 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2852,16 +2846,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2869,16 +2863,16 @@
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2886,16 +2880,16 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2903,16 +2897,16 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,16 +2914,16 @@
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2937,16 +2931,16 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2954,16 +2948,16 @@
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2971,16 +2965,16 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2988,16 +2982,16 @@
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3148,7 +3142,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -3167,10 +3161,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3185,31 +3179,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,36 +3211,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,33 +3251,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,7 +3288,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3305,10 +3299,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3322,7 +3316,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3333,10 +3327,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3350,7 +3344,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3361,10 +3355,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3375,10 +3369,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -3389,10 +3383,10 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -3403,10 +3397,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -3417,7 +3411,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3434,7 +3428,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -3588,7 +3582,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J4" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
@@ -3607,10 +3601,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3625,31 +3619,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3657,36 +3651,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3697,33 +3691,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3734,7 +3728,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3745,10 +3739,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3762,7 +3756,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3773,10 +3767,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3787,10 +3781,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3804,7 +3798,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3815,10 +3809,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -3829,10 +3823,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -3843,16 +3837,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3860,10 +3854,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -3874,10 +3868,10 @@
         <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -3888,7 +3882,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -3905,7 +3899,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -3956,7 +3950,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -3965,34 +3959,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>375</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4000,33 +3994,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4040,27 +4034,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4079,7 +4073,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4101,7 +4095,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4112,7 +4106,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4123,7 +4117,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -4134,7 +4128,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -4145,7 +4139,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
@@ -4156,7 +4150,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D12" s="5">
         <v>4</v>
@@ -4167,7 +4161,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -4178,7 +4172,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -4186,10 +4180,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D15" s="5">
         <v>8</v>
@@ -4200,7 +4194,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D16" s="5">
         <v>8</v>
@@ -4211,7 +4205,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D17" s="5">
         <v>8</v>
@@ -4222,7 +4216,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D18" s="5">
         <v>8</v>
@@ -4233,7 +4227,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -4244,7 +4238,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D20" s="5">
         <v>8</v>
@@ -4255,7 +4249,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D21" s="5">
         <v>8</v>
@@ -4266,7 +4260,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D22" s="5">
         <v>8</v>
@@ -4277,7 +4271,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D23" s="5">
         <v>8</v>
@@ -4288,7 +4282,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D24" s="5">
         <v>8</v>
@@ -4342,7 +4336,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4351,34 +4345,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>375</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4386,33 +4380,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4426,27 +4420,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4466,7 +4460,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4488,7 +4482,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4499,7 +4493,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4510,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -4521,7 +4515,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -4532,7 +4526,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -4543,7 +4537,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
@@ -4554,7 +4548,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -4565,7 +4559,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -4619,7 +4613,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4628,34 +4622,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>375</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4663,33 +4657,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4703,27 +4697,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4742,7 +4736,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4764,7 +4758,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4775,7 +4769,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4786,7 +4780,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -4797,7 +4791,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D10" s="5">
         <v>20</v>
@@ -4840,18 +4834,18 @@
         <v>193</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H3" s="32">
         <v>45467</v>
@@ -4860,12 +4854,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H4" s="32">
         <v>45474</v>
@@ -4874,12 +4868,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H5" s="32">
         <v>45477</v>
@@ -4888,12 +4882,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H6" s="32">
         <v>45482</v>
@@ -4902,12 +4896,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H7" s="32">
         <v>45488</v>
@@ -4916,12 +4910,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H8" s="32">
         <v>45491</v>
@@ -4930,12 +4924,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H9" s="32">
         <v>45496</v>
@@ -4944,12 +4938,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H10" s="32">
         <v>45503</v>
@@ -4958,12 +4952,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H11" s="32">
         <v>45505</v>
@@ -4972,12 +4966,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H12" s="32">
         <v>45510</v>
@@ -4986,12 +4980,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H13" s="32">
         <v>45513</v>
@@ -5000,12 +4994,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H14" s="32">
         <v>45518</v>
@@ -5014,12 +5008,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H15" s="32">
         <v>45523</v>
@@ -5028,7 +5022,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -5099,51 +5093,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5881,7 +5875,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -5961,7 +5955,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -6041,7 +6035,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -6115,7 +6109,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -6189,7 +6183,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -6251,7 +6245,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -6283,7 +6277,7 @@
         <v>183</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>183</v>
@@ -6307,7 +6301,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -6357,7 +6351,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -6395,7 +6389,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -6427,7 +6421,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -6453,7 +6447,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -6479,7 +6473,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -6505,7 +6499,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -6531,7 +6525,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -6557,7 +6551,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -6583,7 +6577,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -6597,7 +6591,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -6721,10 +6715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6735,7 +6729,7 @@
     <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="1" bestFit="1" customWidth="1"/>
@@ -6755,7 +6749,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>187</v>
@@ -6764,34 +6758,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="M1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="N1" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>375</v>
-      </c>
       <c r="O1" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6802,24 +6796,32 @@
         <v>214</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38">
         <v>10</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>463</v>
+      </c>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -6834,28 +6836,22 @@
         <v>188</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36">
         <v>50</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>446</v>
-      </c>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -6870,14 +6866,14 @@
         <v>189</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36">
         <v>50</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -6887,7 +6883,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
@@ -6899,17 +6895,17 @@
         <v>85</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36">
         <v>8</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
@@ -6919,7 +6915,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
@@ -6934,14 +6930,14 @@
         <v>194</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36">
         <v>8</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -6951,7 +6947,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
@@ -6966,30 +6962,32 @@
         <v>216</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38">
         <v>20</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G7" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H7" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
@@ -7001,33 +6999,35 @@
         <v>0</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38">
         <v>20</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G8" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H8" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
@@ -7036,38 +7036,40 @@
     </row>
     <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38">
         <v>15</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G9" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H9" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
@@ -7076,36 +7078,38 @@
     </row>
     <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38">
         <v>15</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G10" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H10" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
@@ -7120,30 +7124,32 @@
         <v>217</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38">
         <v>20</v>
       </c>
       <c r="F11" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>444</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>447</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
@@ -7152,36 +7158,38 @@
     </row>
     <row r="12" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38">
         <v>8</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G12" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H12" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
@@ -7190,38 +7198,40 @@
     </row>
     <row r="13" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38">
         <v>200</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G13" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H13" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
@@ -7230,36 +7240,38 @@
     </row>
     <row r="14" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38">
         <v>8</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G14" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H14" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -7268,36 +7280,38 @@
     </row>
     <row r="15" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38">
         <v>200</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G15" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H15" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
@@ -7312,30 +7326,32 @@
         <v>218</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38">
         <v>100</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G16" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H16" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
@@ -7344,36 +7360,38 @@
     </row>
     <row r="17" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>219</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G17" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H17" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
@@ -7382,36 +7400,38 @@
     </row>
     <row r="18" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>220</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G18" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H18" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
@@ -7420,36 +7440,38 @@
     </row>
     <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>221</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38">
         <v>8</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G19" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="H19" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
@@ -7458,37 +7480,29 @@
     </row>
     <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38">
         <v>8</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G20" s="38"/>
-      <c r="H20" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>454</v>
-      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="38" t="s">
-        <v>430</v>
-      </c>
+      <c r="N20" s="38"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -7496,20 +7510,20 @@
     </row>
     <row r="21" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38">
         <v>8</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -7526,137 +7540,43 @@
     </row>
     <row r="22" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>452</v>
+      </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
+      <c r="N22" s="38" t="s">
+        <v>427</v>
+      </c>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38">
-        <v>11</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38">
-        <v>11</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-    </row>
-    <row r="25" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38">
-        <v>19.2</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7795,7 +7715,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -7814,10 +7734,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -7832,31 +7752,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,36 +7784,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,33 +7824,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,7 +7861,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -7952,10 +7872,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -7969,7 +7889,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -7983,7 +7903,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -7994,10 +7914,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -8008,10 +7928,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -8022,10 +7942,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -8036,10 +7956,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -8050,10 +7970,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -8064,10 +7984,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -8078,10 +7998,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -8092,10 +8012,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -8106,10 +8026,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -8123,7 +8043,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -8239,7 +8159,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
@@ -8258,10 +8178,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8276,31 +8196,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8308,34 +8228,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,34 +8266,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,10 +8301,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8398,7 +8318,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8412,7 +8332,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8423,10 +8343,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8440,7 +8360,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8451,10 +8371,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8465,10 +8385,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8479,10 +8399,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8496,7 +8416,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8612,7 +8532,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
@@ -8631,10 +8551,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8649,31 +8569,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,34 +8601,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8719,34 +8639,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,10 +8674,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8771,7 +8691,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8785,7 +8705,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8796,10 +8716,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8813,7 +8733,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8824,10 +8744,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8838,10 +8758,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8852,10 +8772,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8869,7 +8789,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8927,7 +8847,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -8936,34 +8856,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>375</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -8971,31 +8891,31 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -9009,25 +8929,25 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9046,7 +8966,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -9068,7 +8988,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -9079,7 +8999,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -9101,7 +9021,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -9112,7 +9032,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
@@ -9123,14 +9043,14 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -9138,13 +9058,13 @@
         <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9152,7 +9072,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D14" s="1">
         <v>19.2</v>
@@ -9163,7 +9083,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -9245,52 +9165,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -9382,7 +9302,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -9401,10 +9321,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -9419,31 +9339,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -9451,34 +9371,34 @@
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -9489,31 +9409,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -9521,10 +9441,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -9538,7 +9458,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9552,7 +9472,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -9563,10 +9483,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -9577,10 +9497,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9588,13 +9508,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -9602,13 +9522,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -9616,13 +9536,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -9630,13 +9550,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -9644,13 +9564,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -9658,13 +9578,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -9672,13 +9592,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -9686,13 +9606,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -9700,13 +9620,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -9714,13 +9634,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -9728,13 +9648,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -9742,13 +9662,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -9756,13 +9676,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -9770,13 +9690,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -9784,13 +9704,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -9798,13 +9718,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -9818,7 +9738,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -10108,7 +10028,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -10127,10 +10047,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -10145,31 +10065,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -10180,7 +10100,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -10189,25 +10109,25 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -10218,7 +10138,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -10227,25 +10147,25 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10253,10 +10173,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -10273,7 +10193,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -10287,7 +10207,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -10301,7 +10221,7 @@
         <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -10315,7 +10235,7 @@
         <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -10329,7 +10249,7 @@
         <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -10343,7 +10263,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -10354,10 +10274,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -10371,7 +10291,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
@@ -10385,7 +10305,7 @@
         <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -10399,7 +10319,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -10413,7 +10333,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -10427,7 +10347,7 @@
         <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -10441,7 +10361,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
@@ -10455,7 +10375,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -10469,7 +10389,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -10483,7 +10403,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -10497,7 +10417,7 @@
         <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -10539,7 +10459,7 @@
         <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
@@ -10547,10 +10467,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10558,7 +10478,7 @@
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DD9DC-E4D5-4579-9DA5-1088A3E0189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A224C135-E8E6-4460-9970-5BD6A5297300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="466">
   <si>
     <t>CPF</t>
   </si>
@@ -1446,6 +1446,9 @@
   </si>
   <si>
     <t>10.13.101.169</t>
+  </si>
+  <si>
+    <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
   </si>
 </sst>
 </file>
@@ -6715,10 +6718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6798,10 +6801,10 @@
       <c r="C2" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38">
+      <c r="D2" s="38">
         <v>10</v>
       </c>
+      <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
         <v>441</v>
       </c>
@@ -6838,10 +6841,10 @@
       <c r="C3" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36">
+      <c r="D3" s="36">
         <v>50</v>
       </c>
+      <c r="E3" s="36"/>
       <c r="F3" s="38" t="s">
         <v>441</v>
       </c>
@@ -6868,10 +6871,10 @@
       <c r="C4" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36">
+      <c r="D4" s="36">
         <v>50</v>
       </c>
+      <c r="E4" s="36"/>
       <c r="F4" s="38" t="s">
         <v>441</v>
       </c>
@@ -6900,10 +6903,10 @@
       <c r="C5" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36">
+      <c r="D5" s="36">
         <v>8</v>
       </c>
+      <c r="E5" s="36"/>
       <c r="F5" s="38" t="s">
         <v>441</v>
       </c>
@@ -6932,10 +6935,10 @@
       <c r="C6" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36">
+      <c r="D6" s="36">
         <v>8</v>
       </c>
+      <c r="E6" s="36"/>
       <c r="F6" s="38" t="s">
         <v>441</v>
       </c>
@@ -6964,10 +6967,10 @@
       <c r="C7" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38">
+      <c r="D7" s="38">
         <v>20</v>
       </c>
+      <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
         <v>441</v>
       </c>
@@ -7004,10 +7007,10 @@
       <c r="C8" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38">
+      <c r="D8" s="38">
         <v>20</v>
       </c>
+      <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
         <v>441</v>
       </c>
@@ -7044,10 +7047,10 @@
       <c r="C9" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38">
+      <c r="D9" s="38">
         <v>15</v>
       </c>
+      <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
         <v>441</v>
       </c>
@@ -7086,10 +7089,10 @@
       <c r="C10" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38">
+      <c r="D10" s="38">
         <v>15</v>
       </c>
+      <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
         <v>441</v>
       </c>
@@ -7126,10 +7129,10 @@
       <c r="C11" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38">
+      <c r="D11" s="38">
         <v>20</v>
       </c>
+      <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
         <v>441</v>
       </c>
@@ -7166,10 +7169,10 @@
       <c r="C12" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38">
+      <c r="D12" s="38">
         <v>8</v>
       </c>
+      <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
         <v>441</v>
       </c>
@@ -7206,10 +7209,10 @@
       <c r="C13" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38">
+      <c r="D13" s="38">
         <v>200</v>
       </c>
+      <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
         <v>441</v>
       </c>
@@ -7248,10 +7251,10 @@
       <c r="C14" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38">
+      <c r="D14" s="38">
         <v>8</v>
       </c>
+      <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
         <v>441</v>
       </c>
@@ -7288,10 +7291,10 @@
       <c r="C15" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38">
+      <c r="D15" s="38">
         <v>200</v>
       </c>
+      <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
         <v>441</v>
       </c>
@@ -7328,10 +7331,10 @@
       <c r="C16" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38">
+      <c r="D16" s="38">
         <v>100</v>
       </c>
+      <c r="E16" s="38"/>
       <c r="F16" s="38" t="s">
         <v>441</v>
       </c>
@@ -7368,10 +7371,10 @@
       <c r="C17" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38">
+      <c r="D17" s="38">
         <v>20</v>
       </c>
+      <c r="E17" s="38"/>
       <c r="F17" s="38" t="s">
         <v>441</v>
       </c>
@@ -7408,10 +7411,10 @@
       <c r="C18" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
+      <c r="D18" s="38">
         <v>8</v>
       </c>
+      <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
         <v>441</v>
       </c>
@@ -7448,10 +7451,10 @@
       <c r="C19" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38">
+      <c r="D19" s="38">
         <v>8</v>
       </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
         <v>441</v>
       </c>
@@ -7488,10 +7491,10 @@
       <c r="C20" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38">
+      <c r="D20" s="38">
         <v>8</v>
       </c>
+      <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
         <v>441</v>
       </c>
@@ -7518,10 +7521,10 @@
       <c r="C21" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38">
+      <c r="D21" s="38">
         <v>8</v>
       </c>
+      <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
         <v>441</v>
       </c>
@@ -7548,10 +7551,10 @@
       <c r="C22" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38">
+      <c r="D22" s="38">
         <v>11</v>
       </c>
+      <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
         <v>441</v>
       </c>
@@ -7577,6 +7580,36 @@
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="38">
+        <v>30</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A224C135-E8E6-4460-9970-5BD6A5297300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D5422-7BCA-47F2-8C79-0B41F5869E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -19,16 +19,13 @@
     <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
     <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId7"/>
-    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId9"/>
-    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId13"/>
-    <sheet name="PAUSAS" sheetId="13" r:id="rId14"/>
-    <sheet name="PESQUISA" sheetId="5" r:id="rId15"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId16"/>
+    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId7"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId10"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId11"/>
+    <sheet name="PESQUISA" sheetId="5" r:id="rId12"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="434">
   <si>
     <t>CPF</t>
   </si>
@@ -704,9 +701,6 @@
     <t>NUMERO DO CPF, DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID QUE ESTIVER PRESENTE NA BASE DE DADOS DO DISCADOR</t>
   </si>
   <si>
-    <t>ID ÚNICO DA CHAMADA ESPEDIDO PELO DISCADOR</t>
-  </si>
-  <si>
     <t>MAILING REGISTRADO ATRELADO A CAMPANHA</t>
   </si>
   <si>
@@ -752,60 +746,9 @@
     <t>TELEFONE ATENDIDO</t>
   </si>
   <si>
-    <t>PRIMEIRO LOGIN DO OPERADOR NA FERRAMENTA DENTRO DO DIA</t>
-  </si>
-  <si>
-    <t>ÚLTIMO LOGOUT DO OPERADOR NA FERRAMENTA DENTRO DO DIA</t>
-  </si>
-  <si>
-    <t>VOLUME DE VEZES QUE O OPERADOR LOGOU NO DISCADOR</t>
-  </si>
-  <si>
-    <t>VOLUME DE VEZES QUE O OPERADOR DESLOGOU NO DISCADOR</t>
-  </si>
-  <si>
-    <t>VOLUME DE ATENDIMENTOS DO OPERADOR NO DIA</t>
-  </si>
-  <si>
-    <t>TEMPO LOGADO TOTAL DO OPERADOR</t>
-  </si>
-  <si>
     <t>TEMPO_DESLOGADO</t>
   </si>
   <si>
-    <t>TEMPO DESLOGADO TOTAL DO OPERADOR (TEMPO ENTRE OS DESLOGS E LOGS)</t>
-  </si>
-  <si>
-    <t>SOMA DE TOTAS AS PAUSAS DO OPERADOR NO DIA</t>
-  </si>
-  <si>
-    <t>TEMPO DISPONIVEL PARA ATENDIMENTO DO OPERADOR (FALADO + POS + IDLE)</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL QUE O OPERADOR PASSA FALANDO</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL QUE O OPERADOR REALIZA TABULAÇÕES EM SEU PÓS ATENDIMENTO</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL QUE O OPERADOR FICOU OCIOSO/IDLE NO DIA</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO DE ATENDIMENTO (TEMPO_FALADO/ATENDIDAS)</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO DE POS TABULAÇÃO (TEMPO_POS/ATENDIDAS)</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO DE OCIOSIDADE (TEMPO_IDLE/ATENDIDAS)</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO OPERACIONAL (TMA + TMP)</t>
-  </si>
-  <si>
-    <t>DATA DA REALIZAÇÃO DA PAUSA</t>
-  </si>
-  <si>
     <t>NOTA DE SATISFAÇÃO DO CLIENTE</t>
   </si>
   <si>
@@ -830,27 +773,6 @@
     <t>ID DO ACORDO CRIADO NO MOMENTO DE SEU CRAVAMENTO NO CRM</t>
   </si>
   <si>
-    <t>INICIO DA PAUSA</t>
-  </si>
-  <si>
-    <t>FIM DA PAUSA</t>
-  </si>
-  <si>
-    <t>NOME DA PAUSA</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL DA PAUSA (FIM_PAUSA - INICIO_PAUSA)</t>
-  </si>
-  <si>
-    <t>QUANTIDADE DE VEZES QUE A PAUSA FOI UTILIZADA</t>
-  </si>
-  <si>
-    <t>ID DA PAUSA CADASTRADO NO DISCADOR</t>
-  </si>
-  <si>
-    <t>DATA DO TEMPO CONTABILIZADO</t>
-  </si>
-  <si>
     <t>DATA DO CRAVAMENTO DO ACORDO NO CRM</t>
   </si>
   <si>
@@ -869,36 +791,9 @@
     <t>VALOR DO PAGAMENTO CRAVADO NO CRM</t>
   </si>
   <si>
-    <t>NOME DO OPERADOR QUE REALIZOU O CRAVAMENTO DA AÇÃO</t>
-  </si>
-  <si>
-    <t>ID DA AÇÃO CRIADO NO MOMENTO DE SEU DISPARO</t>
-  </si>
-  <si>
-    <t>1 = TEVE RESPOSTA , 0 = NÃO TEVE  RESPOSTA</t>
-  </si>
-  <si>
-    <t>SE A AÇÃO TEVE RETORNO</t>
-  </si>
-  <si>
-    <t>SE FOI SMS, EMAIL, URA, CHAT, WHATSAPP ETC</t>
-  </si>
-  <si>
-    <t>1 = SMS, 2 = EMAIL, 3 = URA, 4 = CHAT BOT, 5 = WHATSAPP</t>
-  </si>
-  <si>
-    <t>CUSTO DA AÇÃO</t>
-  </si>
-  <si>
-    <t>CANAL FORNECEDOR QUE REALIZOU A AÇÃO</t>
-  </si>
-  <si>
     <t>DATA DA REALIZAÇÃO DO PAGAMENTO</t>
   </si>
   <si>
-    <t>DATA DO ENVIO DA AÇÃO</t>
-  </si>
-  <si>
     <t>NOME DO CRM CADASTRADO</t>
   </si>
   <si>
@@ -1208,15 +1103,9 @@
     <t>DBOLOS, DBASPECT</t>
   </si>
   <si>
-    <t>TEMPOS, TIME_ALL</t>
-  </si>
-  <si>
     <t>DATE,DATETIME</t>
   </si>
   <si>
-    <t>PAUSAS, PAUSE</t>
-  </si>
-  <si>
     <t>NPS, PESQUISA_CLI</t>
   </si>
   <si>
@@ -1343,9 +1232,6 @@
     <t>ID_AGENTE</t>
   </si>
   <si>
-    <t>ID UNICO DO OPERADOR OU LOGIN</t>
-  </si>
-  <si>
     <t>AGENTE</t>
   </si>
   <si>
@@ -1361,9 +1247,6 @@
     <t>NOME_CAMPANHA</t>
   </si>
   <si>
-    <t>NOME CAMPANHA DISCADA</t>
-  </si>
-  <si>
     <t>ID_TABULACAO</t>
   </si>
   <si>
@@ -1394,9 +1277,6 @@
     <t>agent</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>fila</t>
   </si>
   <si>
@@ -1449,6 +1329,27 @@
   </si>
   <si>
     <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
+  </si>
+  <si>
+    <t>NUMERO DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID, COSTCODE QUE POSSIBILITE LOCALIZAR O ID_KEY DA TABELA CARTEIRA</t>
+  </si>
+  <si>
+    <t>ID DO OPERADOR OU LOGIN</t>
+  </si>
+  <si>
+    <t>ID DA CHAMADA</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>NOME DA CAMPANHA DISCADA</t>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1742,21 +1643,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="medium">
@@ -1775,7 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1859,9 +1745,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1882,25 +1765,19 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2240,10 +2117,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2317,709 +2194,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
-  <dimension ref="A1:Y29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="5">
-        <v>78</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>44566.370775462965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-    </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:Q3"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -3144,17 +2318,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3164,10 +2338,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3181,32 +2355,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,36 +2388,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,33 +2428,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +2465,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3302,10 +2476,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3319,7 +2493,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3330,10 +2504,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3347,7 +2521,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3358,10 +2532,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3372,10 +2546,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -3386,10 +2560,10 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -3400,10 +2574,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -3414,7 +2588,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3431,7 +2605,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -3445,7 +2619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -3584,17 +2758,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="J4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3604,10 +2778,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3621,32 +2795,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3654,36 +2828,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3694,33 +2868,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3731,7 +2905,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3742,10 +2916,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3759,7 +2933,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3770,10 +2944,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3784,10 +2958,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3801,7 +2975,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3812,10 +2986,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -3826,10 +3000,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -3840,16 +3014,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>270</v>
+      <c r="F16" s="28" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3857,10 +3031,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -3871,10 +3045,10 @@
         <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -3885,7 +3059,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -3902,7 +3076,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -3916,675 +3090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" s="5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -4616,7 +3122,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4624,35 +3130,35 @@
       <c r="E1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
+      <c r="F1" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>338</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4660,33 +3166,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4700,27 +3206,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4739,7 +3245,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4761,7 +3267,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4772,7 +3278,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4783,7 +3289,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -4794,7 +3300,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D10" s="5">
         <v>20</v>
@@ -4816,7 +3322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -4833,199 +3339,199 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>423</v>
+      <c r="H2" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H3" s="32">
+        <v>372</v>
+      </c>
+      <c r="H3" s="31">
         <v>45467</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H4" s="32">
+        <v>373</v>
+      </c>
+      <c r="H4" s="31">
         <v>45474</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H5" s="32">
+        <v>374</v>
+      </c>
+      <c r="H5" s="31">
         <v>45477</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H6" s="32">
+        <v>375</v>
+      </c>
+      <c r="H6" s="31">
         <v>45482</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H7" s="32">
+        <v>376</v>
+      </c>
+      <c r="H7" s="31">
         <v>45488</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H8" s="32">
+        <v>377</v>
+      </c>
+      <c r="H8" s="31">
         <v>45491</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H9" s="32">
+        <v>378</v>
+      </c>
+      <c r="H9" s="31">
         <v>45496</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H10" s="32">
+        <v>379</v>
+      </c>
+      <c r="H10" s="31">
         <v>45503</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H11" s="32">
+        <v>380</v>
+      </c>
+      <c r="H11" s="31">
         <v>45505</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H12" s="32">
+        <v>381</v>
+      </c>
+      <c r="H12" s="31">
         <v>45510</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H13" s="32">
+        <v>382</v>
+      </c>
+      <c r="H13" s="31">
         <v>45513</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="32">
+        <v>383</v>
+      </c>
+      <c r="H14" s="31">
         <v>45518</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H15" s="32">
+        <v>384</v>
+      </c>
+      <c r="H15" s="31">
         <v>45523</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5096,51 +3602,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5878,7 +4384,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -5958,7 +4464,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -6038,7 +4544,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -6112,7 +4618,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -6186,7 +4692,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -6248,7 +4754,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -6280,7 +4786,7 @@
         <v>183</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>183</v>
@@ -6304,7 +4810,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -6354,7 +4860,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -6392,7 +4898,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -6424,7 +4930,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -6450,7 +4956,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -6476,7 +4982,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -6502,7 +5008,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -6528,7 +5034,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -6554,7 +5060,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -6580,7 +5086,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -6594,7 +5100,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -6718,10 +5224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6745,874 +5251,751 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>426</v>
+      <c r="F1" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="38">
+      <c r="C2" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="36">
         <v>10</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+    </row>
+    <row r="3" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-    </row>
-    <row r="3" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>188</v>
-      </c>
       <c r="C3" s="36" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="D3" s="36">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="F3" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>189</v>
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>392</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="D4" s="36">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="F4" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>85</v>
+        <v>393</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>225</v>
+        <v>428</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="D5" s="36">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E5" s="36"/>
-      <c r="F5" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
+      <c r="F5" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>87</v>
+        <v>394</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>194</v>
+        <v>395</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="D6" s="36">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E6" s="36"/>
-      <c r="F6" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-    </row>
-    <row r="7" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="F6" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" s="36">
+        <v>19</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="36">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" s="36">
+        <v>200</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="36">
+        <v>19</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="36">
+        <v>200</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="36">
+        <v>250</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="36">
+        <v>50</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="36">
+        <v>19</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="36">
+        <v>19</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+    </row>
+    <row r="16" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" s="36">
+        <v>19</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+    </row>
+    <row r="17" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" s="36">
+        <v>19</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="36">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-    </row>
-    <row r="8" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="38">
-        <v>20</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-    </row>
-    <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="38">
-        <v>15</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-    </row>
-    <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="38">
-        <v>15</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-    </row>
-    <row r="11" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="38">
+        <v>171050042710810</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="D12" s="38">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-    </row>
-    <row r="13" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="38">
-        <v>200</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-    </row>
-    <row r="14" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="D14" s="38">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-    </row>
-    <row r="15" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" s="38">
-        <v>200</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-    </row>
-    <row r="16" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="38">
-        <v>100</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-    </row>
-    <row r="17" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D17" s="38">
-        <v>20</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-    </row>
-    <row r="18" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="38">
-        <v>8</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-    </row>
-    <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" s="38">
-        <v>8</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-    </row>
-    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="38">
-        <v>8</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-    </row>
-    <row r="21" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" s="38">
-        <v>8</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-    </row>
-    <row r="22" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="38">
-        <v>11</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="D19" s="36">
         <v>30</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7747,17 +6130,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7767,10 +6150,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -7784,32 +6167,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,36 +6200,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7857,33 +6240,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,7 +6277,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -7905,10 +6288,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -7922,7 +6305,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -7936,7 +6319,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -7947,10 +6330,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -7961,10 +6344,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -7975,10 +6358,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -7989,10 +6372,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -8003,10 +6386,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -8017,10 +6400,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -8031,10 +6414,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -8045,10 +6428,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -8059,10 +6442,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -8076,7 +6459,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -8191,17 +6574,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="I3" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8211,10 +6594,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8228,32 +6611,32 @@
       <c r="H4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>372</v>
+      <c r="I4" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,34 +6644,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,34 +6682,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,10 +6717,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8351,7 +6734,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8365,7 +6748,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8376,10 +6759,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8393,7 +6776,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8404,10 +6787,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8418,10 +6801,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8432,10 +6815,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8449,7 +6832,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8564,17 +6947,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="I3" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8584,10 +6967,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8601,32 +6984,32 @@
       <c r="H4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>372</v>
+      <c r="I4" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8634,34 +7017,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,34 +7055,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,10 +7090,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8724,7 +7107,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8738,7 +7121,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8749,10 +7132,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8766,7 +7149,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8777,10 +7160,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8791,10 +7174,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8805,10 +7188,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8822,7 +7205,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8846,299 +7229,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8EF36-DED1-4AE4-8E82-79A80977A3B5}">
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97A6D-8857-4D87-AF49-4B4418AC3D8F}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -9198,52 +7288,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -9334,17 +7424,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9354,10 +7444,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -9371,32 +7461,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -9404,34 +7494,34 @@
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -9442,31 +7532,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -9474,10 +7564,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -9491,7 +7581,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9505,7 +7595,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -9516,10 +7606,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -9530,10 +7620,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9541,13 +7631,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -9555,13 +7645,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -9569,13 +7659,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -9583,13 +7673,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -9597,13 +7687,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -9611,13 +7701,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -9625,13 +7715,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -9639,13 +7729,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -9653,13 +7743,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -9667,13 +7757,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -9681,13 +7771,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -9695,13 +7785,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -9709,13 +7799,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -9723,13 +7813,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -9737,13 +7827,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -9751,13 +7841,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -9771,7 +7861,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -9785,7 +7875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:AL42"/>
   <sheetViews>
@@ -10060,17 +8150,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10080,10 +8170,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -10097,32 +8187,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -10133,7 +8223,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -10142,25 +8232,25 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -10171,7 +8261,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -10180,25 +8270,25 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10206,10 +8296,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -10226,7 +8316,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -10240,7 +8330,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -10254,7 +8344,7 @@
         <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -10268,7 +8358,7 @@
         <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -10282,7 +8372,7 @@
         <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -10296,7 +8386,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -10307,10 +8397,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -10324,7 +8414,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
@@ -10338,7 +8428,7 @@
         <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -10352,7 +8442,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -10366,7 +8456,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -10380,7 +8470,7 @@
         <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -10394,7 +8484,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
@@ -10408,7 +8498,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -10422,7 +8512,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -10436,7 +8526,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -10450,7 +8540,7 @@
         <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -10492,7 +8582,7 @@
         <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
@@ -10500,10 +8590,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10511,7 +8601,7 @@
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10665,4 +8755,707 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
+  <dimension ref="A1:Y29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="5">
+        <v>78</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>44566.370775462965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I3" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D5422-7BCA-47F2-8C79-0B41F5869E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE9716-D7FF-42AF-87D1-3B1C673D4072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -24,8 +24,7 @@
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId9"/>
     <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId10"/>
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId11"/>
-    <sheet name="PESQUISA" sheetId="5" r:id="rId12"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId13"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="425">
   <si>
     <t>CPF</t>
   </si>
@@ -749,27 +748,12 @@
     <t>TEMPO_DESLOGADO</t>
   </si>
   <si>
-    <t>NOTA DE SATISFAÇÃO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>NOTA DA AVALIAÇÃO PELO CLIENTE (NPS)</t>
-  </si>
-  <si>
-    <t>DATA DA REALIZAÇÃO DA PESQUISA DE SATISFAÇÃO</t>
-  </si>
-  <si>
     <t>ID DO OPERADOR CADASTRADO NO CRM</t>
   </si>
   <si>
     <t>NOME DO OPERADOR CADASTRADO NO CRM</t>
   </si>
   <si>
-    <t>ID DO OPERADOR CADASTRADO NO DISCADOR</t>
-  </si>
-  <si>
-    <t>NOME DO OPERADOR CADASTRADO NO DISCADOR</t>
-  </si>
-  <si>
     <t>ID DO ACORDO CRIADO NO MOMENTO DE SEU CRAVAMENTO NO CRM</t>
   </si>
   <si>
@@ -1095,18 +1079,6 @@
   </si>
   <si>
     <t>DATA_ACIONA,DATE_EVENT_CRM</t>
-  </si>
-  <si>
-    <t>OLOS,ASPECT</t>
-  </si>
-  <si>
-    <t>DBOLOS, DBASPECT</t>
-  </si>
-  <si>
-    <t>DATE,DATETIME</t>
-  </si>
-  <si>
-    <t>NPS, PESQUISA_CLI</t>
   </si>
   <si>
     <t>TBACORDO, TB_CONTRACTS</t>
@@ -2117,10 +2089,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2319,7 +2291,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I4" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -2338,10 +2310,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -2356,31 +2328,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,36 +2360,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,33 +2400,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,7 +2437,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -2479,7 +2451,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -2493,7 +2465,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -2504,10 +2476,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -2521,7 +2493,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -2532,10 +2504,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -2546,10 +2518,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -2563,7 +2535,7 @@
         <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -2577,7 +2549,7 @@
         <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -2588,7 +2560,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -2605,7 +2577,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -2759,7 +2731,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J4" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -2778,10 +2750,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -2796,31 +2768,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -2828,36 +2800,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -2868,33 +2840,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -2905,7 +2877,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -2919,7 +2891,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -2933,7 +2905,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -2944,10 +2916,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -2958,10 +2930,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -2975,7 +2947,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -2986,10 +2958,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -3000,10 +2972,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -3014,16 +2986,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3034,7 +3006,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -3048,7 +3020,7 @@
         <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -3059,7 +3031,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -3076,7 +3048,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -3091,238 +3063,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
-  <dimension ref="A1:O11"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -3343,18 +3083,18 @@
         <v>193</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H3" s="31">
         <v>45467</v>
@@ -3363,12 +3103,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H4" s="31">
         <v>45474</v>
@@ -3377,12 +3117,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H5" s="31">
         <v>45477</v>
@@ -3391,12 +3131,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H6" s="31">
         <v>45482</v>
@@ -3405,12 +3145,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H7" s="31">
         <v>45488</v>
@@ -3419,12 +3159,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="H8" s="31">
         <v>45491</v>
@@ -3433,12 +3173,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H9" s="31">
         <v>45496</v>
@@ -3447,12 +3187,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H10" s="31">
         <v>45503</v>
@@ -3461,12 +3201,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H11" s="31">
         <v>45505</v>
@@ -3475,12 +3215,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H12" s="31">
         <v>45510</v>
@@ -3489,12 +3229,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H13" s="31">
         <v>45513</v>
@@ -3503,12 +3243,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H14" s="31">
         <v>45518</v>
@@ -3517,12 +3257,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H15" s="31">
         <v>45523</v>
@@ -3531,7 +3271,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3602,51 +3342,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -4384,7 +4124,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -4464,7 +4204,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -4544,7 +4284,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -4618,7 +4358,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -4692,7 +4432,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -4754,7 +4494,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -4810,7 +4550,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -4860,7 +4600,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -4898,7 +4638,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -4930,7 +4670,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -4956,7 +4696,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -4982,7 +4722,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -5008,7 +4748,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -5034,7 +4774,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -5060,7 +4800,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -5086,7 +4826,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -5100,7 +4840,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -5258,7 +4998,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>187</v>
@@ -5267,34 +5007,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>338</v>
-      </c>
       <c r="O1" s="36" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5305,32 +5045,32 @@
         <v>214</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D2" s="36">
         <v>10</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
@@ -5342,35 +5082,35 @@
         <v>46</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D3" s="36">
         <v>20</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
@@ -5382,35 +5122,35 @@
         <v>0</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D4" s="36">
         <v>20</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
@@ -5419,40 +5159,40 @@
     </row>
     <row r="5" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D5" s="36">
         <v>30</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
@@ -5461,38 +5201,38 @@
     </row>
     <row r="6" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D6" s="36">
         <v>100</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I6" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>408</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>417</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
       <c r="N6" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -5504,35 +5244,35 @@
         <v>215</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D7" s="36">
         <v>19</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -5541,38 +5281,38 @@
     </row>
     <row r="8" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D8" s="36">
         <v>19</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
@@ -5581,40 +5321,40 @@
     </row>
     <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D9" s="36">
         <v>200</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M9" s="36"/>
       <c r="N9" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
@@ -5623,38 +5363,38 @@
     </row>
     <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D10" s="36">
         <v>19</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I10" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" s="36" t="s">
         <v>405</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>414</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
@@ -5663,38 +5403,38 @@
     </row>
     <row r="11" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D11" s="36">
         <v>200</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
@@ -5709,32 +5449,32 @@
         <v>217</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D12" s="36">
         <v>250</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
@@ -5749,32 +5489,32 @@
         <v>218</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D13" s="36">
         <v>50</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -5789,32 +5529,32 @@
         <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D14" s="36">
         <v>19</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -5829,32 +5569,32 @@
         <v>220</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D15" s="36">
         <v>19</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="J15" s="36" t="s">
         <v>403</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>412</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
       <c r="N15" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -5869,14 +5609,14 @@
         <v>229</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D16" s="36">
         <v>19</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
@@ -5899,14 +5639,14 @@
         <v>230</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D17" s="36">
         <v>19</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -5929,26 +5669,26 @@
         <v>221</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D18" s="36">
         <v>20</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
@@ -5956,7 +5696,7 @@
         <v>171050042710810</v>
       </c>
       <c r="N18" s="36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
@@ -5968,17 +5708,17 @@
         <v>109</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D19" s="36">
         <v>30</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -6131,7 +5871,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I4" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -6150,10 +5890,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -6168,31 +5908,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,33 +5943,33 @@
         <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,33 +5980,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6017,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -6291,7 +6031,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -6305,7 +6045,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -6319,7 +6059,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -6330,10 +6070,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -6344,10 +6084,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -6361,7 +6101,7 @@
         <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -6375,7 +6115,7 @@
         <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -6389,7 +6129,7 @@
         <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -6403,7 +6143,7 @@
         <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -6417,7 +6157,7 @@
         <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -6431,7 +6171,7 @@
         <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -6445,7 +6185,7 @@
         <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -6459,7 +6199,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -6575,7 +6315,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -6594,10 +6334,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -6612,31 +6352,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,34 +6384,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,34 +6422,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,10 +6457,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -6734,7 +6474,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -6748,7 +6488,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -6762,7 +6502,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -6776,7 +6516,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -6787,10 +6527,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -6801,10 +6541,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -6815,10 +6555,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -6832,7 +6572,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -6948,7 +6688,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -6967,10 +6707,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -6985,31 +6725,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,34 +6757,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,34 +6795,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,10 +6830,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -7107,7 +6847,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -7121,7 +6861,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -7135,7 +6875,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -7149,7 +6889,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -7160,10 +6900,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -7174,10 +6914,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -7188,10 +6928,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -7205,7 +6945,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -7288,52 +7028,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -7425,7 +7165,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I4" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -7444,10 +7184,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -7462,31 +7202,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7497,31 +7237,31 @@
         <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -7532,31 +7272,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -7567,7 +7307,7 @@
         <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -7581,7 +7321,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -7595,7 +7335,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -7606,10 +7346,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -7620,10 +7360,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -7631,13 +7371,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -7645,13 +7385,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -7659,13 +7399,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -7673,13 +7413,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -7687,13 +7427,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -7701,13 +7441,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -7715,13 +7455,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -7729,13 +7469,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -7743,13 +7483,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -7757,13 +7497,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -7771,13 +7511,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -7785,13 +7525,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -7799,13 +7539,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -7813,13 +7553,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -7827,13 +7567,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -7841,13 +7581,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -7861,7 +7601,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -8151,7 +7891,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I4" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -8170,10 +7910,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -8188,31 +7928,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8223,7 +7963,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -8232,25 +7972,25 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -8261,7 +8001,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -8270,25 +8010,25 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8299,7 +8039,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -8316,7 +8056,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -8330,7 +8070,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -8344,7 +8084,7 @@
         <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -8358,7 +8098,7 @@
         <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -8372,7 +8112,7 @@
         <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -8386,7 +8126,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8397,10 +8137,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -8414,7 +8154,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
@@ -8428,7 +8168,7 @@
         <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -8442,7 +8182,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -8456,7 +8196,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -8470,7 +8210,7 @@
         <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -8484,7 +8224,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
@@ -8498,7 +8238,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -8512,7 +8252,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -8526,7 +8266,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -8540,7 +8280,7 @@
         <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -8582,7 +8322,7 @@
         <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
@@ -8590,10 +8330,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -8601,7 +8341,7 @@
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -8951,7 +8691,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I3" s="40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -8970,10 +8710,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8988,31 +8728,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -9020,34 +8760,34 @@
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -9058,31 +8798,31 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -9093,7 +8833,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -9107,7 +8847,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -9121,7 +8861,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -9132,10 +8872,10 @@
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -9146,10 +8886,10 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -9160,10 +8900,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -9174,10 +8914,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -9188,16 +8928,16 @@
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -9205,16 +8945,16 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -9222,16 +8962,16 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9239,16 +8979,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -9256,16 +8996,16 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9273,16 +9013,16 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9290,16 +9030,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9307,16 +9047,16 @@
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9324,16 +9064,16 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -9341,16 +9081,16 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -9358,16 +9098,16 @@
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9375,16 +9115,16 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9392,16 +9132,16 @@
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -9409,16 +9149,16 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9426,16 +9166,16 @@
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE9716-D7FF-42AF-87D1-3B1C673D4072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB35DB-6EF8-44C7-8B83-589CB1B8614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="428">
   <si>
     <t>CPF</t>
   </si>
@@ -1195,9 +1195,6 @@
     <t>QUERY</t>
   </si>
   <si>
-    <t>TIM</t>
-  </si>
-  <si>
     <t>CPF DO CLIENTE</t>
   </si>
   <si>
@@ -1322,6 +1319,18 @@
   </si>
   <si>
     <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>DATA_INSERT</t>
+  </si>
+  <si>
+    <t>MOMENTO QUE O DADO FOI INSERIDO NA TABELA</t>
+  </si>
+  <si>
+    <t>DATETIMENOW()</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1628,12 +1637,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1750,6 +1796,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2290,17 +2345,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2730,17 +2785,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4964,10 +5019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:L7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5052,26 +5107,24 @@
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="H2" s="36" t="s">
+      <c r="I2" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>396</v>
-      </c>
       <c r="J2" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N2" s="36"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
@@ -5082,36 +5135,34 @@
         <v>46</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D3" s="36">
         <v>20</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
-      <c r="N3" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N3" s="36"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
@@ -5122,36 +5173,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D4" s="36">
         <v>20</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
@@ -5159,41 +5208,39 @@
     </row>
     <row r="5" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" s="36">
         <v>30</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I5" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>406</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>407</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M5" s="36"/>
-      <c r="N5" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
@@ -5201,39 +5248,37 @@
     </row>
     <row r="6" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>386</v>
-      </c>
       <c r="C6" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" s="36">
         <v>100</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
-      <c r="N6" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
@@ -5244,36 +5289,36 @@
         <v>215</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>420</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>421</v>
       </c>
       <c r="D7" s="36">
         <v>19</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>427</v>
+      </c>
       <c r="F7" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I7" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="J7" s="36" t="s">
         <v>396</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>397</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
-      <c r="N7" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
@@ -5281,39 +5326,37 @@
     </row>
     <row r="8" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>388</v>
-      </c>
       <c r="C8" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D8" s="36">
         <v>19</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N8" s="36"/>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
@@ -5321,41 +5364,39 @@
     </row>
     <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D9" s="36">
         <v>200</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M9" s="36"/>
-      <c r="N9" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N9" s="36"/>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
@@ -5363,39 +5404,37 @@
     </row>
     <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>391</v>
-      </c>
       <c r="C10" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" s="36">
         <v>19</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N10" s="36"/>
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
@@ -5403,39 +5442,37 @@
     </row>
     <row r="11" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>393</v>
-      </c>
       <c r="C11" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D11" s="36">
         <v>200</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N11" s="36"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
@@ -5449,33 +5486,31 @@
         <v>217</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="36">
         <v>250</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -5489,33 +5524,31 @@
         <v>218</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D13" s="36">
         <v>50</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
@@ -5529,33 +5562,31 @@
         <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D14" s="36">
         <v>19</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
-      <c r="N14" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
@@ -5569,33 +5600,31 @@
         <v>220</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" s="36">
         <v>19</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
@@ -5609,14 +5638,14 @@
         <v>229</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D16" s="36">
         <v>19</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
@@ -5639,14 +5668,14 @@
         <v>230</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D17" s="36">
         <v>19</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -5669,35 +5698,31 @@
         <v>221</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D18" s="36">
         <v>20</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
-      <c r="M18" s="38">
-        <v>171050042710810</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
@@ -5708,22 +5733,22 @@
         <v>109</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D19" s="36">
         <v>30</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="F19" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
@@ -5733,7 +5758,38 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
     </row>
+    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="36">
+        <v>19</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5870,17 +5926,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6314,17 +6370,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -6687,17 +6743,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -7164,17 +7220,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7890,17 +7946,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8690,17 +8746,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB35DB-6EF8-44C7-8B83-589CB1B8614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7B550-8E1A-466C-90E4-7E5C262C026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
     <sheet name="CHAVES" sheetId="15" state="hidden" r:id="rId2"/>
     <sheet name="ACIONA_DISCADOR_OUTBOUND" sheetId="3" r:id="rId3"/>
-    <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
-    <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId7"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId8"/>
-    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId9"/>
-    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId10"/>
-    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId11"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId12"/>
+    <sheet name="PESQUISA_SATISFACAO" sheetId="20" r:id="rId4"/>
+    <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId6"/>
+    <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId7"/>
+    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId9"/>
+    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="451">
   <si>
     <t>CPF</t>
   </si>
@@ -1231,9 +1232,6 @@
     <t>2CX</t>
   </si>
   <si>
-    <t>replica_mfrflab1 , replica_mfrfl2b1</t>
-  </si>
-  <si>
     <t>chamadas</t>
   </si>
   <si>
@@ -1331,6 +1329,116 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>DATA DA PESQUISA</t>
+  </si>
+  <si>
+    <t>chamadas_extra_info</t>
+  </si>
+  <si>
+    <t>valor4</t>
+  </si>
+  <si>
+    <t>RESPOSTA_01</t>
+  </si>
+  <si>
+    <t>PERGUNTA_01</t>
+  </si>
+  <si>
+    <t>PERGUNTA_02</t>
+  </si>
+  <si>
+    <t>RESPOSTA_02</t>
+  </si>
+  <si>
+    <t>PERGUNTA 1 DA PESQUISA</t>
+  </si>
+  <si>
+    <t>RESPOSTA DA PERGUNTA 1</t>
+  </si>
+  <si>
+    <t>PERGUNTA 2 DA PESQUISA</t>
+  </si>
+  <si>
+    <t>RESPOSTA DA PERGUNTA 2</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>ID DE ORIGEM DO REGISTRO PROVENIENTE DE OUTRA PLATAFORMA</t>
+  </si>
+  <si>
+    <t>valor3</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>valor2</t>
+  </si>
+  <si>
+    <t>NOME DA PLATAFORMA DE ORIGEM DO REGISTRO</t>
+  </si>
+  <si>
+    <t>INTEGRACAO_ID</t>
+  </si>
+  <si>
+    <t>INTEGRACAO_PLATAFORMA</t>
+  </si>
+  <si>
+    <t>CASE 
+    WHEN valor5 = 45100 THEN 'Humano ASPECT' 
+    WHEN valor5 = 45200 THEN 'Humano OLOS' 
+    WHEN valor5 = 45300 THEN 'AGV OLOS' 
+    ELSE 'AGV 2CX' 
+  END AS Origem</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>SELECT 
+  uniqueid, 
+  calldate, 
+  identificador1,
+  identificador2,
+  identificador3,
+  identificador4, 
+  identificador5, 
+  iddiscador,
+  origem, 
+  data_registro, 
+  info,
+  valor as NPS1,
+  info2,
+  valor2 as NPS2,
+  info3, 
+  valor3 as idCall,
+  info4, 
+  valor4 as custCode, 
+  info5,
+  CASE 
+    WHEN valor5 = 45100 THEN 'Humano ASPECT' 
+    WHEN valor5 = 45200 THEN 'Humano OLOS' 
+    WHEN valor5 = 45300 THEN 'AGV OLOS' 
+    ELSE 'AGV 2CX' 
+  END AS Origem
+FROM chamadas_extra_info a
+left join chamadas b on a.uniqueid = b.uniqueid
+left join queues c on b.fila = c.fila
+WHERE identificador3 = "Pesquisa de Satisfacao"
+--AND valor3 = '1706526010.56'
+AND calldate BETWEEN '2024-07-01 00:20:00.000' AND '2024-07-03 23:50:00.000' 
+ORDER BY data_registro DESC
+LIMIT 10;</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,8 +1631,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1674,12 +1788,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,6 +1949,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1805,6 +1965,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2221,6 +2384,709 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
+  <dimension ref="A1:Y29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="5">
+        <v>78</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>44566.370775462965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I3" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -2345,17 +3211,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2646,7 +3512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -2785,17 +3651,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3117,7 +3983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -5021,20 +5887,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -5110,16 +5976,16 @@
         <v>393</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>395</v>
-      </c>
       <c r="J2" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
@@ -5135,10 +6001,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3" s="36">
         <v>20</v>
@@ -5148,16 +6014,16 @@
         <v>393</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
@@ -5176,7 +6042,7 @@
         <v>382</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" s="36">
         <v>20</v>
@@ -5186,16 +6052,16 @@
         <v>393</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
@@ -5211,10 +6077,10 @@
         <v>383</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" s="36">
         <v>30</v>
@@ -5224,20 +6090,20 @@
         <v>393</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I5" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>405</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>406</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
@@ -5254,7 +6120,7 @@
         <v>385</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D6" s="36">
         <v>100</v>
@@ -5264,16 +6130,16 @@
         <v>393</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -5289,31 +6155,31 @@
         <v>215</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>419</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>420</v>
       </c>
       <c r="D7" s="36">
         <v>19</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>393</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I7" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="J7" s="36" t="s">
         <v>395</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>396</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
@@ -5332,7 +6198,7 @@
         <v>387</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" s="36">
         <v>19</v>
@@ -5342,16 +6208,16 @@
         <v>393</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -5367,10 +6233,10 @@
         <v>388</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D9" s="36">
         <v>200</v>
@@ -5380,20 +6246,20 @@
         <v>393</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
@@ -5410,7 +6276,7 @@
         <v>390</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" s="36">
         <v>19</v>
@@ -5420,16 +6286,16 @@
         <v>393</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
@@ -5448,7 +6314,7 @@
         <v>392</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="36">
         <v>200</v>
@@ -5458,16 +6324,16 @@
         <v>393</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
@@ -5486,7 +6352,7 @@
         <v>217</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="36">
         <v>250</v>
@@ -5496,16 +6362,16 @@
         <v>393</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -5524,7 +6390,7 @@
         <v>218</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D13" s="36">
         <v>50</v>
@@ -5534,16 +6400,16 @@
         <v>393</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
@@ -5562,7 +6428,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="36">
         <v>19</v>
@@ -5572,16 +6438,16 @@
         <v>393</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
@@ -5600,7 +6466,7 @@
         <v>220</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D15" s="36">
         <v>19</v>
@@ -5610,16 +6476,16 @@
         <v>393</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
@@ -5638,7 +6504,7 @@
         <v>229</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D16" s="36">
         <v>19</v>
@@ -5668,7 +6534,7 @@
         <v>230</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D17" s="36">
         <v>19</v>
@@ -5698,7 +6564,7 @@
         <v>221</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D18" s="36">
         <v>20</v>
@@ -5708,16 +6574,16 @@
         <v>393</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
@@ -5733,22 +6599,22 @@
         <v>109</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D19" s="36">
         <v>30</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
@@ -5760,25 +6626,25 @@
     </row>
     <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="C20" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D20" s="36">
         <v>19</v>
       </c>
       <c r="E20" s="36"/>
-      <c r="F20" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="F20" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
@@ -5796,6 +6662,572 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB7E24-B45A-45EF-B179-ED76FBFF6766}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="37.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="36">
+        <v>10</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="36">
+        <v>20</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="36">
+        <v>19</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="46"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" s="36">
+        <v>8</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="46"/>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="36">
+        <v>200</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="46"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="36">
+        <v>20</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="36">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="46"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="36">
+        <v>50</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="46"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="36">
+        <v>8</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="46"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="36">
+        <v>50</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="46"/>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="36">
+        <v>8</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="46"/>
+    </row>
+    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="36">
+        <v>20</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="46"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="36">
+        <v>30</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="46"/>
+    </row>
+    <row r="15" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="36">
+        <v>19</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="O2:O15"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
@@ -5926,17 +7358,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6269,7 +7701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -6370,17 +7802,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -6642,7 +8074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -6743,17 +8175,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -7024,7 +8456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97A6D-8857-4D87-AF49-4B4418AC3D8F}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -7220,17 +8652,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7671,7 +9103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:AL42"/>
   <sheetViews>
@@ -7946,17 +9378,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8551,707 +9983,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
-  <dimension ref="A1:Y29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="5">
-        <v>78</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>44566.370775462965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-    </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:Q3"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7B550-8E1A-466C-90E4-7E5C262C026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CDC884-D2E5-4A53-A44F-AD9D07D8AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="454">
   <si>
     <t>CPF</t>
   </si>
@@ -1440,6 +1440,15 @@
 ORDER BY data_registro DESC
 LIMIT 10;</t>
   </si>
+  <si>
+    <t>EVENTO_ID</t>
+  </si>
+  <si>
+    <t>ID DO ACIONAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+  </si>
 </sst>
 </file>
 
@@ -1449,7 +1458,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,16 +1534,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,18 +1616,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F4E78"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF44546A"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1638,7 +1627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1688,21 +1677,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1830,7 +1804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1925,37 +1899,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1964,10 +1935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2576,17 +2544,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3211,17 +3179,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3651,17 +3619,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -5885,10 +5853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5912,749 +5880,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="34">
+        <v>19</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D3" s="34">
         <v>10</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-    </row>
-    <row r="3" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D4" s="34">
         <v>20</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G4" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J4" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-    </row>
-    <row r="4" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D5" s="34">
         <v>20</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J5" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="5" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D6" s="34">
         <v>30</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G6" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I6" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J6" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-    </row>
-    <row r="6" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D7" s="34">
         <v>100</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H7" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I7" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J7" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-    </row>
-    <row r="7" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D8" s="34">
         <v>19</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G8" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I8" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J8" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-    </row>
-    <row r="8" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D9" s="34">
         <v>19</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H9" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I9" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J9" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-    </row>
-    <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D10" s="34">
         <v>200</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G10" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H10" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I10" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J10" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-    </row>
-    <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D11" s="34">
         <v>19</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H11" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I11" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J11" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-    </row>
-    <row r="11" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D12" s="34">
         <v>200</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I12" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J12" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-    </row>
-    <row r="12" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D13" s="34">
         <v>250</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H13" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J13" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-    </row>
-    <row r="13" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D14" s="34">
         <v>50</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G14" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H14" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I14" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J14" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-    </row>
-    <row r="14" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D15" s="34">
         <v>19</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I15" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J15" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-    </row>
-    <row r="15" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D16" s="34">
         <v>19</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H16" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I16" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J16" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-    </row>
-    <row r="16" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D17" s="34">
         <v>19</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-    </row>
-    <row r="17" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D18" s="34">
         <v>19</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-    </row>
-    <row r="18" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D19" s="34">
         <v>20</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G19" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H19" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I19" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J19" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-    </row>
-    <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D20" s="34">
         <v>30</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="43" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-    </row>
-    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D21" s="34">
         <v>19</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="43" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F19:J19"/>
+  <mergeCells count="3">
     <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6663,10 +6659,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB7E24-B45A-45EF-B179-ED76FBFF6766}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6692,536 +6688,563 @@
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>333</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="34">
+        <v>19</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D3" s="34">
         <v>10</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="46" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="44" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D4" s="34">
         <v>20</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G4" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J4" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="46"/>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="44"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D5" s="34">
         <v>19</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="F4" s="36" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J5" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="46"/>
-    </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D6" s="34">
         <v>8</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G6" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I6" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J6" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D7" s="34">
         <v>200</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H7" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I7" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J7" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="46"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D8" s="34">
         <v>20</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G8" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I8" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J8" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="44"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D9" s="34">
         <v>19</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H9" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I9" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J9" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="46"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D10" s="34">
         <v>50</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G10" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H10" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I10" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J10" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="46"/>
-    </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H11" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I11" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J11" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="46"/>
-    </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="44"/>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D12" s="34">
         <v>50</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I12" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J12" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="46"/>
-    </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D13" s="34">
         <v>8</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H13" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J13" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="46"/>
-    </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="44"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D14" s="34">
         <v>20</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G14" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H14" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I14" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J14" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K14" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="44"/>
+    </row>
+    <row r="15" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D15" s="34">
         <v>30</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="43" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="46"/>
-    </row>
-    <row r="15" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="44"/>
+    </row>
+    <row r="16" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D16" s="34">
         <v>19</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="43" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="46"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F14:J14"/>
+  <mergeCells count="4">
     <mergeCell ref="F15:J15"/>
-    <mergeCell ref="O2:O15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="O3:O16"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7358,17 +7381,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7802,17 +7825,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8175,17 +8198,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8652,17 +8675,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9378,17 +9401,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CDC884-D2E5-4A53-A44F-AD9D07D8AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C03B74-D694-46FD-9E05-51B5DF205CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="463">
   <si>
     <t>CPF</t>
   </si>
@@ -1239,9 +1239,6 @@
   </si>
   <si>
     <t>doc</t>
-  </si>
-  <si>
-    <t>agent</t>
   </si>
   <si>
     <t>fila</t>
@@ -1448,6 +1445,108 @@
   </si>
   <si>
     <t>IDENTITY</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>NOME DO BANCO DE DADOS ORIGEM</t>
+  </si>
+  <si>
+    <t>HOST (IP) DO BANCO ORIGEM</t>
+  </si>
+  <si>
+    <t>DEPENDE DO BD</t>
+  </si>
+  <si>
+    <t>QUERY BD 1</t>
+  </si>
+  <si>
+    <t>QUERY BD 2</t>
+  </si>
+  <si>
+    <t>QUERY BD 3</t>
+  </si>
+  <si>
+    <t>select
+DATE(A.calldate) as DATA,
+A.doc AS ID_KEY,
+A.doc as CPF,
+B.user AS ID_AGENTE,
+B.nome AS AGENTE,
+A.uniqueid AS CALL_ID,
+A.fila AS ID_CAMPANHA,
+C.NOME AS NOME_CAMPANHA,
+A.id_statusdenegocio AS ID_TABULACAO,
+A.statusnegocio AS NOME_TABULACAO,
+A.mailing AS MAILING,
+A.terminator AS ROTA,
+A.dtini AS INICIO_CHAMADA,
+A.dtfim AS FIM_CHAMADA,
+'' AS INICIO_POS,
+'' AS FIM_POS,
+A.origem AS TELEFONE,
+'10.13.101.169' AS INSTANCIA,
+'replica_mfrflab1' AS BANCO,
+'2CX' AS ORIGEM
+FROM chamadas A 
+LEFT JOIN agents B ON A.agente = B.user
+LEFT JOIN queues C ON A.fila = C.fila
+WHERE calldate BETWEEN '2024-07-15 08:00:00' AND '2024-07-15 08:59:59'</t>
+  </si>
+  <si>
+    <t>select
+DATE(A.calldate) as DATA,
+A.doc AS ID_KEY,
+A.doc as CPF,
+B.user AS ID_AGENTE,
+B.nome AS AGENTE,
+A.uniqueid AS CALL_ID,
+A.fila AS ID_CAMPANHA,
+C.NOME AS NOME_CAMPANHA,
+A.id_statusdenegocio AS ID_TABULACAO,
+A.statusnegocio AS NOME_TABULACAO,
+A.mailing AS MAILING,
+A.terminator AS ROTA,
+A.dtini AS INICIO_CHAMADA,
+A.dtfim AS FIM_CHAMADA,
+'' AS INICIO_POS,
+'' AS FIM_POS,
+A.origem AS TELEFONE,
+'10.13.101.169' AS INSTANCIA,
+'replica_mfrfl2b1' AS BANCO,
+'2CX' AS ORIGEM
+FROM chamadas A 
+LEFT JOIN agents B ON A.agente = B.user
+LEFT JOIN queues C ON A.fila = C.fila
+WHERE calldate BETWEEN '2024-07-15 08:00:00' AND '2024-07-15 08:59:59'</t>
+  </si>
+  <si>
+    <t>select
+DATE(A.calldate) as DATA,
+A.doc AS ID_KEY,
+A.doc as CPF,
+B.user AS ID_AGENTE,
+B.nome AS AGENTE,
+A.uniqueid AS CALL_ID,
+A.fila AS ID_CAMPANHA,
+C.NOME AS NOME_CAMPANHA,
+A.id_statusdenegocio AS ID_TABULACAO,
+A.statusnegocio AS NOME_TABULACAO,
+A.mailing AS MAILING,
+A.terminator AS ROTA,
+A.dtini AS INICIO_CHAMADA,
+A.dtfim AS FIM_CHAMADA,
+'' AS INICIO_POS,
+'' AS FIM_POS,
+A.origem AS TELEFONE,
+'10.13.101.169' AS INSTANCIA,
+'replica_mfrfl3b1' AS BANCO,
+'2CX' AS ORIGEM
+FROM chamadas A 
+LEFT JOIN agents B ON A.agente = B.user
+LEFT JOIN queues C ON A.fila = C.fila
+WHERE calldate BETWEEN '2024-07-15 08:00:00' AND '2024-07-15 08:59:59'</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1799,12 +1898,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1911,9 +2034,6 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1924,6 +2044,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2544,17 +2673,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3179,17 +3308,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3619,17 +3748,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -5853,10 +5982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5873,13 +6002,11 @@
     <col min="10" max="10" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="32.77734375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="70.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>186</v>
       </c>
@@ -5916,50 +6043,56 @@
       <c r="L1" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>333</v>
+      <c r="M1" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>458</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>452</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="34">
         <v>19</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+        <v>425</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>214</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5973,35 +6106,33 @@
         <v>393</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-    </row>
-    <row r="4" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -6011,10 +6142,10 @@
         <v>393</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>394</v>
@@ -6024,14 +6155,12 @@
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -6039,7 +6168,7 @@
         <v>382</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -6049,10 +6178,10 @@
         <v>393</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>394</v>
@@ -6062,22 +6191,20 @@
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-    </row>
-    <row r="6" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>383</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D6" s="34">
         <v>30</v>
@@ -6087,29 +6214,27 @@
         <v>393</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I6" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>404</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>405</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+        <v>406</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-    </row>
-    <row r="7" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>384</v>
       </c>
@@ -6117,7 +6242,7 @@
         <v>385</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" s="34">
         <v>100</v>
@@ -6127,35 +6252,33 @@
         <v>393</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-    </row>
-    <row r="8" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>418</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>419</v>
       </c>
       <c r="D8" s="34">
         <v>19</v>
@@ -6165,10 +6288,10 @@
         <v>393</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>394</v>
@@ -6178,14 +6301,12 @@
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-    </row>
-    <row r="9" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>386</v>
       </c>
@@ -6193,7 +6314,7 @@
         <v>387</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="34">
         <v>19</v>
@@ -6203,35 +6324,33 @@
         <v>393</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-    </row>
-    <row r="10" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>388</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="34">
         <v>200</v>
@@ -6241,29 +6360,27 @@
         <v>393</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+        <v>409</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-    </row>
-    <row r="11" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>389</v>
       </c>
@@ -6271,7 +6388,7 @@
         <v>390</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11" s="34">
         <v>19</v>
@@ -6281,27 +6398,25 @@
         <v>393</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-    </row>
-    <row r="12" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>391</v>
       </c>
@@ -6309,7 +6424,7 @@
         <v>392</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D12" s="34">
         <v>200</v>
@@ -6319,27 +6434,25 @@
         <v>393</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
       <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-    </row>
-    <row r="13" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
@@ -6347,7 +6460,7 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D13" s="34">
         <v>250</v>
@@ -6357,27 +6470,25 @@
         <v>393</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
@@ -6385,7 +6496,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="34">
         <v>50</v>
@@ -6395,27 +6506,25 @@
         <v>393</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-    </row>
-    <row r="15" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -6423,7 +6532,7 @@
         <v>219</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D15" s="34">
         <v>19</v>
@@ -6433,27 +6542,25 @@
         <v>393</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-    </row>
-    <row r="16" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
@@ -6461,7 +6568,7 @@
         <v>220</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D16" s="34">
         <v>19</v>
@@ -6471,27 +6578,25 @@
         <v>393</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-    </row>
-    <row r="17" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
@@ -6499,7 +6604,7 @@
         <v>229</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D17" s="34">
         <v>19</v>
@@ -6514,14 +6619,12 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-    </row>
-    <row r="18" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
@@ -6529,7 +6632,7 @@
         <v>230</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D18" s="34">
         <v>19</v>
@@ -6544,14 +6647,12 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-    </row>
-    <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -6559,7 +6660,7 @@
         <v>221</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D19" s="34">
         <v>20</v>
@@ -6569,88 +6670,145 @@
         <v>393</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-    </row>
-    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D20" s="34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
+      <c r="F20" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-    </row>
-    <row r="21" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>424</v>
+    </row>
+    <row r="21" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>454</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>421</v>
       </c>
       <c r="D21" s="34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
+      <c r="F21" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="34">
+        <v>30</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="34">
+        <v>19</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="N2:N23"/>
+    <mergeCell ref="O2:O23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6733,27 +6891,27 @@
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>452</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="34">
         <v>19</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+        <v>425</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -6763,8 +6921,8 @@
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>427</v>
+      <c r="B3" s="36" t="s">
+        <v>426</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>310</v>
@@ -6777,23 +6935,23 @@
         <v>393</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H3" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>413</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
-      <c r="O3" s="44" t="s">
-        <v>450</v>
+      <c r="O3" s="46" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6801,10 +6959,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -6814,32 +6972,32 @@
         <v>393</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I4" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>428</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>429</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="44"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>215</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>418</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>419</v>
       </c>
       <c r="D5" s="34">
         <v>19</v>
@@ -6849,13 +7007,13 @@
         <v>393</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J5" s="34" t="s">
         <v>395</v>
@@ -6864,7 +7022,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="44"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
@@ -6874,7 +7032,7 @@
         <v>387</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D6" s="34">
         <v>8</v>
@@ -6884,32 +7042,32 @@
         <v>393</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="44"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>388</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" s="34">
         <v>200</v>
@@ -6919,24 +7077,24 @@
         <v>393</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="44"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
@@ -6946,7 +7104,7 @@
         <v>221</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D8" s="34">
         <v>20</v>
@@ -6956,32 +7114,32 @@
         <v>393</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>394</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="44"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>439</v>
+        <v>445</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>438</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="34">
         <v>19</v>
@@ -6991,32 +7149,32 @@
         <v>393</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="44"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>433</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="34">
         <v>50</v>
@@ -7026,32 +7184,32 @@
         <v>393</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="44"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>435</v>
+        <v>429</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -7061,32 +7219,32 @@
         <v>393</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="44"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>436</v>
+        <v>431</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>435</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D12" s="34">
         <v>50</v>
@@ -7096,32 +7254,32 @@
         <v>393</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="44"/>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="B13" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="D13" s="34">
         <v>8</v>
@@ -7131,32 +7289,32 @@
         <v>393</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="44"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>445</v>
+      <c r="A14" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>444</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="34">
         <v>20</v>
@@ -7166,78 +7324,78 @@
         <v>393</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="44"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>415</v>
+      <c r="B15" s="36" t="s">
+        <v>414</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D15" s="34">
         <v>30</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="44"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>424</v>
-      </c>
       <c r="C16" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D16" s="34">
         <v>19</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="F16" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="44"/>
+      <c r="O16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7381,17 +7539,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7825,17 +7983,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8198,17 +8356,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8675,17 +8833,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9401,17 +9559,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C03B74-D694-46FD-9E05-51B5DF205CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CB8B5C-EF54-4842-B2BB-A110FB16D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="464">
   <si>
     <t>CPF</t>
   </si>
@@ -1547,6 +1547,9 @@
 LEFT JOIN agents B ON A.agente = B.user
 LEFT JOIN queues C ON A.fila = C.fila
 WHERE calldate BETWEEN '2024-07-15 08:00:00' AND '2024-07-15 08:59:59'</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
   </si>
 </sst>
 </file>
@@ -5984,15 +5987,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -6132,7 +6135,7 @@
         <v>415</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -6168,7 +6171,7 @@
         <v>382</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -6207,7 +6210,7 @@
         <v>421</v>
       </c>
       <c r="D6" s="34">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
@@ -6245,7 +6248,7 @@
         <v>421</v>
       </c>
       <c r="D7" s="34">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
@@ -6353,7 +6356,7 @@
         <v>421</v>
       </c>
       <c r="D10" s="34">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34" t="s">
@@ -6427,7 +6430,7 @@
         <v>421</v>
       </c>
       <c r="D12" s="34">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
@@ -6460,10 +6463,10 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D13" s="34">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
@@ -6496,10 +6499,10 @@
         <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D14" s="34">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
@@ -6660,10 +6663,10 @@
         <v>221</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D19" s="34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34" t="s">
@@ -6696,7 +6699,7 @@
         <v>455</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D20" s="34">
         <v>20</v>
@@ -6724,7 +6727,7 @@
         <v>454</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D21" s="34">
         <v>20</v>
@@ -6752,7 +6755,7 @@
         <v>414</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D22" s="34">
         <v>30</v>
@@ -6773,10 +6776,10 @@
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="34" t="s">
         <v>423</v>
       </c>
       <c r="C23" s="34" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CB8B5C-EF54-4842-B2BB-A110FB16D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E7285-35A0-43BD-9260-EA99ACE763CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2394,7 +2394,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2402,7 +2402,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2413,67 +2413,67 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2491,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -2521,7 +2521,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -3194,7 +3194,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" bestFit="1" customWidth="1"/>
@@ -3213,7 +3213,7 @@
     <col min="16" max="16" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3310,7 +3310,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
     </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -3620,7 +3620,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -3642,7 +3642,7 @@
     <col min="18" max="16384" width="13.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3750,7 +3750,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="J4" s="47" t="s">
         <v>362</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="Q4" s="47"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="64.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -4091,7 +4091,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -4099,7 +4099,7 @@
     <col min="11" max="11" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:10">
       <c r="G2" s="29" t="s">
         <v>193</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:10">
       <c r="G3" s="1" t="s">
         <v>363</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:10">
       <c r="G4" s="1" t="s">
         <v>364</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:10">
       <c r="G5" s="1" t="s">
         <v>365</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10">
       <c r="G6" s="1" t="s">
         <v>366</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:10">
       <c r="G7" s="1" t="s">
         <v>367</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:10">
       <c r="G8" s="1" t="s">
         <v>368</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:10">
       <c r="G9" s="1" t="s">
         <v>369</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:10">
       <c r="G10" s="1" t="s">
         <v>370</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:10">
       <c r="G11" s="1" t="s">
         <v>371</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:10">
       <c r="G12" s="1" t="s">
         <v>372</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:10">
       <c r="G13" s="1" t="s">
         <v>373</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:10">
       <c r="G14" s="1" t="s">
         <v>374</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:10">
       <c r="G15" s="1" t="s">
         <v>375</v>
       </c>
@@ -4308,7 +4308,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -4361,7 +4361,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>320</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="B3" s="20" t="s">
         <v>128</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
         <v>356</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
@@ -5899,62 +5899,62 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:40">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:40">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:40">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:40">
       <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:40">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="J42" s="21"/>
@@ -5987,11 +5987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.109375" style="1" bestFit="1" customWidth="1"/>
@@ -6009,7 +6009,7 @@
     <col min="16" max="16384" width="70.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>186</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>450</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="29.4" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="O4" s="41"/>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>383</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>421</v>
       </c>
       <c r="D6" s="34">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
@@ -6237,7 +6237,7 @@
       <c r="O6" s="41"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="7" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>384</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="O7" s="41"/>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="O8" s="41"/>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>386</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="O9" s="41"/>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>388</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="O10" s="41"/>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A11" s="34" t="s">
         <v>389</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="O11" s="41"/>
       <c r="P11" s="34"/>
     </row>
-    <row r="12" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A12" s="34" t="s">
         <v>391</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="O12" s="41"/>
       <c r="P12" s="34"/>
     </row>
-    <row r="13" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
@@ -6491,7 +6491,7 @@
       <c r="O13" s="41"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="O14" s="41"/>
       <c r="P14" s="34"/>
     </row>
-    <row r="15" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -6563,7 +6563,7 @@
       <c r="O15" s="41"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="O16" s="41"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="O17" s="41"/>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
@@ -6655,7 +6655,7 @@
       <c r="O18" s="41"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="O19" s="41"/>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>326</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="O20" s="41"/>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A21" s="34" t="s">
         <v>453</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="O21" s="41"/>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A22" s="34" t="s">
         <v>109</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="O22" s="41"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A23" s="34" t="s">
         <v>422</v>
       </c>
@@ -6826,7 +6826,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -6845,7 +6845,7 @@
     <col min="15" max="16384" width="37.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="29.4" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>450</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -6992,7 +6992,7 @@
       <c r="N4" s="34"/>
       <c r="O4" s="46"/>
     </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="34" t="s">
         <v>215</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="N5" s="34"/>
       <c r="O5" s="46"/>
     </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>386</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="N6" s="34"/>
       <c r="O6" s="46"/>
     </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>388</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="N7" s="34"/>
       <c r="O7" s="46"/>
     </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="34" t="s">
         <v>12</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="N8" s="34"/>
       <c r="O8" s="46"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>445</v>
       </c>
@@ -7169,7 +7169,7 @@
       <c r="N9" s="34"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>430</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="N10" s="34"/>
       <c r="O10" s="46"/>
     </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A11" s="34" t="s">
         <v>429</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="N11" s="34"/>
       <c r="O11" s="46"/>
     </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A12" s="34" t="s">
         <v>431</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="N12" s="34"/>
       <c r="O12" s="46"/>
     </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A13" s="34" t="s">
         <v>432</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="N13" s="34"/>
       <c r="O13" s="46"/>
     </row>
-    <row r="14" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A14" s="37" t="s">
         <v>446</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="N14" s="34"/>
       <c r="O14" s="46"/>
     </row>
-    <row r="15" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="34" t="s">
         <v>109</v>
       </c>
@@ -7373,7 +7373,7 @@
       <c r="N15" s="34"/>
       <c r="O15" s="46"/>
     </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A16" s="37" t="s">
         <v>422</v>
       </c>
@@ -7419,7 +7419,7 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -7441,7 +7441,7 @@
     <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
@@ -7554,7 +7554,7 @@
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
     </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -7893,7 +7893,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -7915,7 +7915,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
@@ -7998,7 +7998,7 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8266,7 +8266,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -8288,7 +8288,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="I3" s="47" t="s">
         <v>362</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8623,10 +8623,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5">
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5">
       <c r="E18" s="24"/>
     </row>
   </sheetData>
@@ -8648,7 +8648,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -8677,7 +8677,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -8835,7 +8835,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>260</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>253</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>254</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>255</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>256</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>257</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>258</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -9295,7 +9295,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -9329,7 +9329,7 @@
     <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="I4" s="47" t="s">
         <v>362</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
     </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="27" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="27" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="25.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>356</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/2CX/MAPEAMENTO_2CX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\2CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E7285-35A0-43BD-9260-EA99ACE763CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D504C2E-A42B-42CC-9042-9618D4E3F170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -5987,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1"/>
